--- a/data_zeng/data.xlsx
+++ b/data_zeng/data.xlsx
@@ -5,17 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ftp" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="taobao" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="mac" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="118">
   <si>
     <t>参数配置</t>
   </si>
@@ -48,6 +50,327 @@
   </si>
   <si>
     <t>2.zip</t>
+  </si>
+  <si>
+    <t>淘宝参数配置</t>
+  </si>
+  <si>
+    <t>登录淘宝地址</t>
+  </si>
+  <si>
+    <t>https://login.taobao.com/</t>
+  </si>
+  <si>
+    <t>zeewii5</t>
+  </si>
+  <si>
+    <t>zeng@07150830</t>
+  </si>
+  <si>
+    <t>店铺名</t>
+  </si>
+  <si>
+    <t>fila官方旗舰店</t>
+  </si>
+  <si>
+    <t>84:82:f4:26:5a:d8</t>
+  </si>
+  <si>
+    <t>84:82:f4:1e:f3:c4</t>
+  </si>
+  <si>
+    <t>84:82:f4:0c:f0:80</t>
+  </si>
+  <si>
+    <t>84:82:f4:16:ab:18</t>
+  </si>
+  <si>
+    <t>84:82:f4:1f:15:d0</t>
+  </si>
+  <si>
+    <t>84:82:f4:16:2d:80</t>
+  </si>
+  <si>
+    <t>84:82:f4:0b:57:70</t>
+  </si>
+  <si>
+    <t>84:82:f4:22:8c:48</t>
+  </si>
+  <si>
+    <t>84:82:f4:0e:0e:98</t>
+  </si>
+  <si>
+    <t>84:82:f4:22:c9:d8</t>
+  </si>
+  <si>
+    <t>84:82:f4:25:43:58</t>
+  </si>
+  <si>
+    <t>84:82:f4:26:42:98</t>
+  </si>
+  <si>
+    <t>84:82:f4:21:57:64</t>
+  </si>
+  <si>
+    <t>84:82:f4:10:d1:a0</t>
+  </si>
+  <si>
+    <t>84:82:f4:16:13:00</t>
+  </si>
+  <si>
+    <t>84:82:f4:0a:f4:dc</t>
+  </si>
+  <si>
+    <t>84:82:f4:22:5c:78</t>
+  </si>
+  <si>
+    <t>84:82:f4:15:d0:c8</t>
+  </si>
+  <si>
+    <t>84:82:f4:13:d7:dc</t>
+  </si>
+  <si>
+    <t>84:82:f4:0c:f2:08</t>
+  </si>
+  <si>
+    <t>84:82:f4:22:44:50</t>
+  </si>
+  <si>
+    <t>84:82:f4:10:d5:2c</t>
+  </si>
+  <si>
+    <t>84:82:f4:16:4b:2c</t>
+  </si>
+  <si>
+    <t>84:82:f4:1e:d0:78</t>
+  </si>
+  <si>
+    <t>84:82:f4:16:8e:64</t>
+  </si>
+  <si>
+    <t>84:82:f4:22:7b:90</t>
+  </si>
+  <si>
+    <t>84:82:f4:1f:fe:b8</t>
+  </si>
+  <si>
+    <t>84:82:f4:1e:f5:88</t>
+  </si>
+  <si>
+    <t>84:82:f4:15:2d:44</t>
+  </si>
+  <si>
+    <t>84:82:f4:25:f0:a8</t>
+  </si>
+  <si>
+    <t>84:82:f4:25:58:d8</t>
+  </si>
+  <si>
+    <t>84:82:f4:0f:c8:40</t>
+  </si>
+  <si>
+    <t>84:82:f4:21:7d:14</t>
+  </si>
+  <si>
+    <t>84:82:f4:24:db:44</t>
+  </si>
+  <si>
+    <t>84:82:f4:0d:1a:10</t>
+  </si>
+  <si>
+    <t>84:82:f4:10:10:58</t>
+  </si>
+  <si>
+    <t>84:82:f4:16:80:b0</t>
+  </si>
+  <si>
+    <t>84:82:f4:25:26:a4</t>
+  </si>
+  <si>
+    <t>84:82:f4:26:6c:54</t>
+  </si>
+  <si>
+    <t>84:82:f4:14:46:a8</t>
+  </si>
+  <si>
+    <t>84:82:f4:22:0a:24</t>
+  </si>
+  <si>
+    <t>84:82:f4:21:3d:34</t>
+  </si>
+  <si>
+    <t>84:82:f4:21:4b:f8</t>
+  </si>
+  <si>
+    <t>84:82:f4:1e:f5:d8</t>
+  </si>
+  <si>
+    <t>84:82:f4:16:38:90</t>
+  </si>
+  <si>
+    <t>84:82:f4:1e:d9:bc</t>
+  </si>
+  <si>
+    <t>84:82:f4:1e:d4:24</t>
+  </si>
+  <si>
+    <t>84:82:f4:22:70:d0</t>
+  </si>
+  <si>
+    <t>84:82:f4:26:42:88</t>
+  </si>
+  <si>
+    <t>84:82:f4:1e:f9:b4</t>
+  </si>
+  <si>
+    <t>84:82:f4:0b:38:50</t>
+  </si>
+  <si>
+    <t>84:82:f4:0a:d1:a4</t>
+  </si>
+  <si>
+    <t>84:82:f4:0d:78:90</t>
+  </si>
+  <si>
+    <t>84:82:f4:10:5f:74</t>
+  </si>
+  <si>
+    <t>84:82:f4:0d:50:a4</t>
+  </si>
+  <si>
+    <t>84:82:f4:26:aa:e8</t>
+  </si>
+  <si>
+    <t>84:82:f4:26:a9:10</t>
+  </si>
+  <si>
+    <t>84:82:f4:10:a6:3c</t>
+  </si>
+  <si>
+    <t>84:82:f4:1e:f7:4c</t>
+  </si>
+  <si>
+    <t>84:82:f4:0b:27:58</t>
+  </si>
+  <si>
+    <t>84:82:f4:26:75:cc</t>
+  </si>
+  <si>
+    <t>84:82:f4:1d:c1:a8</t>
+  </si>
+  <si>
+    <t>84:82:f4:26:e1:5c</t>
+  </si>
+  <si>
+    <t>84:82:f4:24:da:48</t>
+  </si>
+  <si>
+    <t>84:82:f4:26:85:e0</t>
+  </si>
+  <si>
+    <t>84:82:f4:0b:4f:c8</t>
+  </si>
+  <si>
+    <t>84:82:f4:16:3c:0c</t>
+  </si>
+  <si>
+    <t>84:82:f4:1c:ea:dc</t>
+  </si>
+  <si>
+    <t>84:82:f4:1f:1a:9c</t>
+  </si>
+  <si>
+    <t>84:82:f4:22:bf:58</t>
+  </si>
+  <si>
+    <t>84:82:f4:21:58:7c</t>
+  </si>
+  <si>
+    <t>84:82:f4:0d:12:f8</t>
+  </si>
+  <si>
+    <t>84:82:f4:10:1c:a8</t>
+  </si>
+  <si>
+    <t>84:82:f4:14:98:6c</t>
+  </si>
+  <si>
+    <t>84:82:f4:21:58:b0</t>
+  </si>
+  <si>
+    <t>84:82:f4:16:82:50</t>
+  </si>
+  <si>
+    <t>84:82:f4:26:ee:70</t>
+  </si>
+  <si>
+    <t>84:82:f4:26:6c:74</t>
+  </si>
+  <si>
+    <t>84:82:f4:26:43:34</t>
+  </si>
+  <si>
+    <t>84:82:f4:26:e8:e4</t>
+  </si>
+  <si>
+    <t>84:82:f4:22:80:bc</t>
+  </si>
+  <si>
+    <t>84:82:f4:1d:34:2c</t>
+  </si>
+  <si>
+    <t>84:82:f4:25:59:d4</t>
+  </si>
+  <si>
+    <t>84:82:f4:22:1a:e4</t>
+  </si>
+  <si>
+    <t>84:82:f4:0a:6b:a8</t>
+  </si>
+  <si>
+    <t>84:82:f4:16:74:ac</t>
+  </si>
+  <si>
+    <t>84:82:f4:25:6f:ac</t>
+  </si>
+  <si>
+    <t>84:82:f4:25:45:4c</t>
+  </si>
+  <si>
+    <t>84:82:f4:10:87:d4</t>
+  </si>
+  <si>
+    <t>84:82:f4:16:22:a8</t>
+  </si>
+  <si>
+    <t>84:82:f4:25:6d:98</t>
+  </si>
+  <si>
+    <t>84:82:f4:0a:74:58</t>
+  </si>
+  <si>
+    <t>84:82:f4:14:d8:4c</t>
+  </si>
+  <si>
+    <t>84:82:f4:1f:f7:40</t>
+  </si>
+  <si>
+    <t>84:82:f4:0d:1b:10</t>
+  </si>
+  <si>
+    <t>84:82:f4:10:6f:fc</t>
+  </si>
+  <si>
+    <t>84:82:f4:22:97:98</t>
+  </si>
+  <si>
+    <t>84:82:f4:0e:0b:70</t>
+  </si>
+  <si>
+    <t>84:82:f4:26:92:50</t>
+  </si>
+  <si>
+    <t>84:82:f4:20:0d:80</t>
   </si>
 </sst>
 </file>
@@ -162,7 +485,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -184,6 +507,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -267,8 +594,8 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -356,4 +683,621 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5915492957746"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.2863849765258"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6009389671362"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://login.taobao.com/"/>
+    <hyperlink ref="B5" r:id="rId2" display="zeng@07150830"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A100"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5164319248826"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.6009389671362"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/data_zeng/data.xlsx
+++ b/data_zeng/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ftp" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="116">
   <si>
     <t>参数配置</t>
   </si>
@@ -59,12 +59,6 @@
   </si>
   <si>
     <t>https://login.taobao.com/</t>
-  </si>
-  <si>
-    <t>zeewii5</t>
-  </si>
-  <si>
-    <t>zeng@07150830</t>
   </si>
   <si>
     <t>店铺名</t>
@@ -594,7 +588,7 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -693,7 +687,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -734,26 +728,22 @@
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -762,7 +752,6 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://login.taobao.com/"/>
-    <hyperlink ref="B5" r:id="rId2" display="zeng@07150830"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -781,7 +770,7 @@
   </sheetPr>
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -793,502 +782,502 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data_zeng/data.xlsx
+++ b/data_zeng/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ftp" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="118">
   <si>
     <t>参数配置</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>https://login.taobao.com/</t>
+  </si>
+  <si>
+    <t>zeewii5</t>
+  </si>
+  <si>
+    <t>zeng@07150830</t>
   </si>
   <si>
     <t>店铺名</t>
@@ -588,7 +594,7 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -686,8 +692,8 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -728,22 +734,26 @@
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -752,6 +762,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://login.taobao.com/"/>
+    <hyperlink ref="B5" r:id="rId2" display="zeng@07150830"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -782,502 +793,502 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
